--- a/Budget_Bytes_Recs.xlsx
+++ b/Budget_Bytes_Recs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruina\Desktop\Projects\beth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D238201A-76E1-4492-AA7B-EB133B0DB62B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B51ED8F-F609-4F14-A4FD-2A6D42C2E638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6160" yWindow="2610" windowWidth="25560" windowHeight="15470" firstSheet="63" activeTab="65" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6160" yWindow="2610" windowWidth="25560" windowHeight="15470" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4396,7 +4396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -5940,7 +5940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
